--- a/DVS_example_export.xlsx
+++ b/DVS_example_export.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://monashuni-my.sharepoint.com/personal/paul_michalski1_monash_edu/Documents/PhD/Findings/Codes/DVS/Sorption Paper Git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmic0003\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD0EFB3E-3D5F-41AE-A997-E0C06F9BBD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ACA5FC-60E0-4A94-A2E4-DB3B51A6755F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15315" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{A6883E1A-3C90-4BE6-839E-D1E3D3AA6B5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A6883E1A-3C90-4BE6-839E-D1E3D3AA6B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Iso Report" sheetId="4" r:id="rId1"/>
+    <sheet name="NIHS" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>DVS Isotherm Analysis Report</t>
   </si>
@@ -87,6 +88,12 @@
   </si>
   <si>
     <t>mg</t>
+  </si>
+  <si>
+    <t>Moisture content (% d.b.)</t>
+  </si>
+  <si>
+    <t>Net Isosteric Heat of Sorption (kJ/mol)</t>
   </si>
 </sst>
 </file>
@@ -97,7 +104,7 @@
     <numFmt numFmtId="164" formatCode="0.0\ \ \ \ \ \ \ "/>
     <numFmt numFmtId="165" formatCode="0.00\ \ \ \ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +133,16 @@
       <color theme="1"/>
       <name val="Times"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +152,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -303,6 +324,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A94D4AE-9021-4D3D-93DA-F0CA2502AB43}">
   <dimension ref="B1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -1105,4 +1144,110 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3342F4-9313-4733-9805-3AF36D77E2A9}">
+  <dimension ref="B1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="31.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="23">
+        <v>2.1769209482519602E-3</v>
+      </c>
+      <c r="C2" s="24">
+        <v>49.742445382635601</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="23">
+        <v>5.8899855486885299E-3</v>
+      </c>
+      <c r="C3" s="24">
+        <v>35.220953545733998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="23">
+        <v>1.3731820557758999E-2</v>
+      </c>
+      <c r="C4" s="24">
+        <v>21.996773724314998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="23">
+        <v>2.7766196230359998E-2</v>
+      </c>
+      <c r="C5" s="24">
+        <v>15.300030343587</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="23">
+        <v>4.9573532576945398E-2</v>
+      </c>
+      <c r="C6" s="24">
+        <v>9.2304338515931601</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="23">
+        <v>8.1517695169572205E-2</v>
+      </c>
+      <c r="C7" s="24">
+        <v>5.7066980720402301</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="23">
+        <v>0.124936813947053</v>
+      </c>
+      <c r="C8" s="24">
+        <v>3.1100627402041501</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="23">
+        <v>0.15526365956400101</v>
+      </c>
+      <c r="C9" s="24">
+        <v>1.89185899291971</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="23">
+        <v>0.199044368600683</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.84232353036895702</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="25">
+        <v>0.26346401008517001</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0.16409802908433499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>